--- a/biology/Zoologie/Euptychia_hilara/Euptychia_hilara.xlsx
+++ b/biology/Zoologie/Euptychia_hilara/Euptychia_hilara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Euptychia hilara est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Euptychia hilara a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1867 sous le nom de Neonympha hilara.
-Synonyme : Euptychia anacleta Butler, 1877[1].
-Nom vernaculaire
-Euptychia hilara se nomme Tawny-cornered Satyr en anglais[2].
+Synonyme : Euptychia anacleta Butler, 1877.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euptychia hilara est un papillon au dessus beige.
-Le revers est beige rayé de deux lignes ocre orangé, discale et postdiscale et d'une plage orange à l'aile antérieure vers l'angle interne. Une ligne d'ocelles comporte à l'apex de l'aile antérieure un ocelle noir cerclé de beige et pupillé comme à l'aile postérieure un gros ocelle proche de l'angle anal et deux petits proches de l'apex.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia hilara se nomme Tawny-cornered Satyr en anglais.
 </t>
         </is>
       </c>
@@ -574,13 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Selaginella comme pour les autres Euptychia connus[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia hilara est un papillon au dessus beige.
+Le revers est beige rayé de deux lignes ocre orangé, discale et postdiscale et d'une plage orange à l'aile antérieure vers l'angle interne. Une ligne d'ocelles comporte à l'apex de l'aile antérieure un ocelle noir cerclé de beige et pupillé comme à l'aile postérieure un gros ocelle proche de l'angle anal et deux petits proches de l'apex.
 </t>
         </is>
       </c>
@@ -606,15 +625,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Selaginella comme pour les autres Euptychia connus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euptychia_hilara</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_hilara</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia hilara est présent au Nicaragua, au Panama, au Costa Rica, en Colombie et en Équateur[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia hilara est présent au Nicaragua, au Panama, au Costa Rica, en Colombie et en Équateur,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euptychia_hilara</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_hilara</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Euptychia hilara, sur Wikimedia CommonsEuptychia hilara, sur Wikispecies
 </t>
